--- a/Machine Learning/Book1(3).xlsx
+++ b/Machine Learning/Book1(3).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Development\Projects\GitHub\hoya-hack\Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D2E53BA-3FEC-47C5-AFF2-420F4E626C98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C11E38A8-6E6C-41A7-99F6-3FABAA58CCEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2016" yWindow="3048" windowWidth="17280" windowHeight="8964" xr2:uid="{09D9224B-842C-4840-8CE3-EBEB566371DE}"/>
+    <workbookView xWindow="72" yWindow="36" windowWidth="17280" windowHeight="8964" xr2:uid="{09D9224B-842C-4840-8CE3-EBEB566371DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,10 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -46,11 +47,25 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
@@ -111,6 +126,62 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>8</v>
+    <v>4</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F9C88-7026-4E70-8441-33EDB8F1C001}">
-  <dimension ref="CW1:ALQ904"/>
+  <dimension ref="CW1:CZA2604"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -418,14 +489,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="311" max="311" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="1001" max="1001" width="22.5546875" customWidth="1"/>
-    <col min="1002" max="1002" width="18.77734375" customWidth="1"/>
-    <col min="1003" max="1003" width="22.33203125" customWidth="1"/>
-    <col min="1004" max="1004" width="20.44140625" customWidth="1"/>
+    <col min="2011" max="2011" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2701" max="2701" width="22.5546875" customWidth="1"/>
+    <col min="2702" max="2702" width="18.77734375" customWidth="1"/>
+    <col min="2703" max="2703" width="22.33203125" customWidth="1"/>
+    <col min="2704" max="2704" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="101:106" x14ac:dyDescent="0.3">
+    <row r="1" spans="101:115" x14ac:dyDescent="0.3">
       <c r="CW1">
         <v>1</v>
       </c>
@@ -449,8 +520,12 @@
         <f>VALUE(221900)</f>
         <v>221900</v>
       </c>
-    </row>
-    <row r="2" spans="101:106" x14ac:dyDescent="0.3">
+      <c r="DH1" cm="1">
+        <f t="array" ref="DH1:DH5">MMULT(MMULT(MINVERSE(MMULT(TRANSPOSE(CW1:DA10),(CW1:DA10))),TRANSPOSE(CW1:DA10)),DB1:DB10)</f>
+        <v>5011981.639772661</v>
+      </c>
+    </row>
+    <row r="2" spans="101:115" x14ac:dyDescent="0.3">
       <c r="CW2">
         <v>1</v>
       </c>
@@ -474,8 +549,18 @@
         <f>VALUE(538000)</f>
         <v>538000</v>
       </c>
-    </row>
-    <row r="3" spans="101:106" x14ac:dyDescent="0.3">
+      <c r="DH2">
+        <v>52049.160677000924</v>
+      </c>
+      <c r="DI2">
+        <v>3</v>
+      </c>
+      <c r="DJ2">
+        <f>DH2*DI2</f>
+        <v>156147.48203100276</v>
+      </c>
+    </row>
+    <row r="3" spans="101:115" x14ac:dyDescent="0.3">
       <c r="CW3">
         <v>1</v>
       </c>
@@ -499,8 +584,18 @@
         <f>VALUE(180000)</f>
         <v>180000</v>
       </c>
-    </row>
-    <row r="4" spans="101:106" x14ac:dyDescent="0.3">
+      <c r="DH3">
+        <v>137573.86631982494</v>
+      </c>
+      <c r="DI3">
+        <v>2.5</v>
+      </c>
+      <c r="DJ3">
+        <f>DH3*DI3</f>
+        <v>343934.66579956235</v>
+      </c>
+    </row>
+    <row r="4" spans="101:115" x14ac:dyDescent="0.3">
       <c r="CW4">
         <v>1</v>
       </c>
@@ -524,8 +619,18 @@
         <f>VALUE(604000)</f>
         <v>604000</v>
       </c>
-    </row>
-    <row r="5" spans="101:106" x14ac:dyDescent="0.3">
+      <c r="DH4">
+        <v>135.62546665653485</v>
+      </c>
+      <c r="DI4">
+        <v>3560</v>
+      </c>
+      <c r="DJ4">
+        <f>DH4*DI4</f>
+        <v>482826.6612972641</v>
+      </c>
+    </row>
+    <row r="5" spans="101:115" x14ac:dyDescent="0.3">
       <c r="CW5">
         <v>1</v>
       </c>
@@ -549,8 +654,19 @@
         <f>VALUE(510000)</f>
         <v>510000</v>
       </c>
-    </row>
-    <row r="6" spans="101:106" x14ac:dyDescent="0.3">
+      <c r="DH5">
+        <v>-2686.1736692147074</v>
+      </c>
+      <c r="DJ5">
+        <f>DH5*DI5</f>
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <f>SUM(DJ2:DJ5)</f>
+        <v>982908.80912782927</v>
+      </c>
+    </row>
+    <row r="6" spans="101:115" x14ac:dyDescent="0.3">
       <c r="CW6">
         <v>1</v>
       </c>
@@ -574,8 +690,12 @@
         <f>VALUE(1230000)</f>
         <v>1230000</v>
       </c>
-    </row>
-    <row r="7" spans="101:106" x14ac:dyDescent="0.3">
+      <c r="DK6" t="str">
+        <f>TEXT(DK5,"0")</f>
+        <v>982909</v>
+      </c>
+    </row>
+    <row r="7" spans="101:115" x14ac:dyDescent="0.3">
       <c r="CW7">
         <v>1</v>
       </c>
@@ -600,7 +720,7 @@
         <v>257500</v>
       </c>
     </row>
-    <row r="8" spans="101:106" x14ac:dyDescent="0.3">
+    <row r="8" spans="101:115" x14ac:dyDescent="0.3">
       <c r="CW8">
         <v>1</v>
       </c>
@@ -625,7 +745,7 @@
         <v>291850</v>
       </c>
     </row>
-    <row r="9" spans="101:106" x14ac:dyDescent="0.3">
+    <row r="9" spans="101:115" x14ac:dyDescent="0.3">
       <c r="CW9">
         <v>1</v>
       </c>
@@ -650,7 +770,7 @@
         <v>229500</v>
       </c>
     </row>
-    <row r="10" spans="101:106" x14ac:dyDescent="0.3">
+    <row r="10" spans="101:115" x14ac:dyDescent="0.3">
       <c r="CW10">
         <v>1</v>
       </c>
@@ -675,7 +795,7 @@
         <v>323000</v>
       </c>
     </row>
-    <row r="101" spans="201:208" x14ac:dyDescent="0.3">
+    <row r="101" spans="201:215" x14ac:dyDescent="0.3">
       <c r="GS101">
         <v>1</v>
       </c>
@@ -699,12 +819,12 @@
         <f>VALUE(221900)</f>
         <v>221900</v>
       </c>
-      <c r="GZ101" t="e" cm="1">
-        <f t="array" ref="GZ101">MMULT(MINVERSE(GS101:GW110),GX101:GX110)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="102" spans="201:208" x14ac:dyDescent="0.3">
+      <c r="HD101" cm="1">
+        <f t="array" ref="HD101:HD105">MMULT(MMULT(MINVERSE(MMULT(TRANSPOSE(GS101:GW110),(GS101:GW110))),TRANSPOSE(GS101:GW110)),GX101:GX110)</f>
+        <v>5100715.3493731758</v>
+      </c>
+    </row>
+    <row r="102" spans="201:215" x14ac:dyDescent="0.3">
       <c r="GS102">
         <v>1</v>
       </c>
@@ -713,6 +833,7 @@
         <v>3</v>
       </c>
       <c r="GU102">
+        <f>VALUE(2.25)</f>
         <v>2.25</v>
       </c>
       <c r="GV102">
@@ -727,8 +848,18 @@
         <f>VALUE(538000)</f>
         <v>538000</v>
       </c>
-    </row>
-    <row r="103" spans="201:208" x14ac:dyDescent="0.3">
+      <c r="HD102">
+        <v>36401.517419678989</v>
+      </c>
+      <c r="HE102">
+        <v>3</v>
+      </c>
+      <c r="HF102">
+        <f>HC102*HD102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="201:215" x14ac:dyDescent="0.3">
       <c r="GS103">
         <v>1</v>
       </c>
@@ -752,8 +883,18 @@
         <f>VALUE(180000)</f>
         <v>180000</v>
       </c>
-    </row>
-    <row r="104" spans="201:208" x14ac:dyDescent="0.3">
+      <c r="HD103">
+        <v>154934.06957139418</v>
+      </c>
+      <c r="HE103">
+        <v>2.5</v>
+      </c>
+      <c r="HF103">
+        <f>HC103*HD103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="201:215" x14ac:dyDescent="0.3">
       <c r="GS104">
         <v>1</v>
       </c>
@@ -777,12 +918,23 @@
         <f>VALUE(604000)</f>
         <v>604000</v>
       </c>
-    </row>
-    <row r="105" spans="201:208" x14ac:dyDescent="0.3">
+      <c r="HD104">
+        <v>132.0274720166833</v>
+      </c>
+      <c r="HE104">
+        <v>3560</v>
+      </c>
+      <c r="HF104">
+        <f>HC104*HD104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="201:215" x14ac:dyDescent="0.3">
       <c r="GS105">
         <v>1</v>
       </c>
       <c r="GT105">
+        <f>VALUE(3)</f>
         <v>3</v>
       </c>
       <c r="GU105">
@@ -801,8 +953,19 @@
         <f>VALUE(510000)</f>
         <v>510000</v>
       </c>
-    </row>
-    <row r="106" spans="201:208" x14ac:dyDescent="0.3">
+      <c r="HD105">
+        <v>-2727.445890868355</v>
+      </c>
+      <c r="HF105">
+        <f>HC105*HD105</f>
+        <v>0</v>
+      </c>
+      <c r="HG105">
+        <f>SUM(HE102:HE105)</f>
+        <v>3565.5</v>
+      </c>
+    </row>
+    <row r="106" spans="201:215" x14ac:dyDescent="0.3">
       <c r="GS106">
         <v>1</v>
       </c>
@@ -826,8 +989,12 @@
         <f>VALUE(1230000)</f>
         <v>1230000</v>
       </c>
-    </row>
-    <row r="107" spans="201:208" x14ac:dyDescent="0.3">
+      <c r="HG106" t="str">
+        <f>TEXT(HG105,"0")</f>
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="107" spans="201:215" x14ac:dyDescent="0.3">
       <c r="GS107">
         <v>1</v>
       </c>
@@ -852,7 +1019,7 @@
         <v>257500</v>
       </c>
     </row>
-    <row r="108" spans="201:208" x14ac:dyDescent="0.3">
+    <row r="108" spans="201:215" x14ac:dyDescent="0.3">
       <c r="GS108">
         <v>1</v>
       </c>
@@ -865,8 +1032,8 @@
         <v>1.5</v>
       </c>
       <c r="GV108">
-        <f>VALUE(1060)</f>
-        <v>1060</v>
+        <f>VALUE(1960)</f>
+        <v>1960</v>
       </c>
       <c r="GW108">
         <f>VALUE(1963)</f>
@@ -877,7 +1044,7 @@
         <v>291850</v>
       </c>
     </row>
-    <row r="109" spans="201:208" x14ac:dyDescent="0.3">
+    <row r="109" spans="201:215" x14ac:dyDescent="0.3">
       <c r="GS109">
         <v>1</v>
       </c>
@@ -902,7 +1069,7 @@
         <v>229500</v>
       </c>
     </row>
-    <row r="110" spans="201:208" x14ac:dyDescent="0.3">
+    <row r="110" spans="201:215" x14ac:dyDescent="0.3">
       <c r="GS110">
         <v>1</v>
       </c>
@@ -927,861 +1094,3121 @@
         <v>323000</v>
       </c>
     </row>
-    <row r="201" spans="301:311" x14ac:dyDescent="0.3">
+    <row r="201" spans="301:315" x14ac:dyDescent="0.3">
       <c r="KO201">
-        <f>VALUE(3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="KP201">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="KQ201">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="KR201">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="KS201">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="KT201">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="KZ201" t="e" cm="1">
+        <f t="array" ref="KZ201">MMULT(MMULT(MINVERSE(MMULT(TRANSPOSE(KO201:KS204),(KO201:KS204))),TRANSPOSE(KO201:KS204)),KT201:KT204)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="202" spans="301:315" x14ac:dyDescent="0.3">
+      <c r="KO202">
+        <v>1</v>
+      </c>
+      <c r="KP202">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="KQ202">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="KR202">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="KS202">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="KT202">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="LA202">
+        <v>2</v>
+      </c>
+      <c r="LB202">
+        <f>KY202*KZ202</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="301:315" x14ac:dyDescent="0.3">
+      <c r="KO203">
+        <v>1</v>
+      </c>
+      <c r="KP203">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="KQ203">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="KR203">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="KS203">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="KT203">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="LA203">
+        <v>4</v>
+      </c>
+      <c r="LB203">
+        <f>KY203*KZ203</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="301:315" x14ac:dyDescent="0.3">
+      <c r="KO204">
+        <v>1</v>
+      </c>
+      <c r="KP204">
         <f>VALUE(1)</f>
         <v>1</v>
       </c>
-      <c r="KQ201">
+      <c r="KQ204">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="KR204">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="KS204">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="KT204">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="LA204">
+        <v>3</v>
+      </c>
+      <c r="LB204">
+        <f>KY204*KZ204</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="301:315" x14ac:dyDescent="0.3">
+      <c r="LB205">
+        <f>KY205*KZ205</f>
+        <v>0</v>
+      </c>
+      <c r="LC205">
+        <f>SUM(LA202:LA205)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="301:315" x14ac:dyDescent="0.3">
+      <c r="LC206" t="str">
+        <f>TEXT(LC205,"0")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="401:406" x14ac:dyDescent="0.3">
+      <c r="OK301">
+        <v>1</v>
+      </c>
+      <c r="OL301">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="OM301">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ON301">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="OO301">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="OP301">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="401:406" x14ac:dyDescent="0.3">
+      <c r="OK302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="501:515" x14ac:dyDescent="0.3">
+      <c r="SG401">
+        <v>1</v>
+      </c>
+      <c r="SH401">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SI401">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="SJ401">
         <f>VALUE(1180)</f>
         <v>1180</v>
       </c>
-      <c r="KR201">
+      <c r="SK401">
         <f>VALUE(1955)</f>
         <v>1955</v>
       </c>
-      <c r="KS201">
+      <c r="SL401">
         <f>VALUE(221900)</f>
         <v>221900</v>
       </c>
-      <c r="KU201" t="e" cm="1">
-        <f t="array" ref="KU201">MMULT(MINVERSE(KO201:KR210),KS201:KS210)</f>
+      <c r="SR401" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="SR401" ca="1">MMULT(MMULT(MINVERSE(MMULT(TRANSPOSE(SG401:SK410),(SG401:SK410))),TRANSPOSE(SG401:SK410)),SL401:SL410)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="KY201" t="e" cm="1">
-        <f t="array" ref="KY201">MMULT(MINVERSE(KO201:KR210),KS201:KS210)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="202" spans="301:311" x14ac:dyDescent="0.3">
-      <c r="KO202">
-        <f>VALUE(3)</f>
-        <v>3</v>
-      </c>
-      <c r="KP202">
+    </row>
+    <row r="402" spans="501:515" x14ac:dyDescent="0.3">
+      <c r="SG402">
+        <v>1</v>
+      </c>
+      <c r="SH402">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SI402">
+        <f>VALUE(2.25)</f>
         <v>2.25</v>
       </c>
-      <c r="KQ202">
+      <c r="SJ402">
         <f>VALUE(2570)</f>
         <v>2570</v>
       </c>
-      <c r="KR202">
+      <c r="SK402">
         <f>VALUE(1951)</f>
         <v>1951</v>
       </c>
-      <c r="KS202">
+      <c r="SL402">
+        <f>VALUE(538000)</f>
+        <v>538000</v>
+      </c>
+      <c r="SR402">
+        <v>3</v>
+      </c>
+      <c r="SS402">
+        <f>SQ402*SR402</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="501:515" x14ac:dyDescent="0.3">
+      <c r="SG403">
+        <v>1</v>
+      </c>
+      <c r="SH403">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="SI403">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="SJ403">
+        <f>VALUE(770)</f>
+        <v>770</v>
+      </c>
+      <c r="SK403">
+        <f>VALUE(1933)</f>
+        <v>1933</v>
+      </c>
+      <c r="SL403">
+        <f>VALUE(180000)</f>
+        <v>180000</v>
+      </c>
+      <c r="SR403">
+        <v>2.5</v>
+      </c>
+      <c r="SS403">
+        <f>SQ403*SR403</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="501:515" x14ac:dyDescent="0.3">
+      <c r="SG404">
+        <v>1</v>
+      </c>
+      <c r="SH404">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="SI404">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SJ404">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="SK404">
+        <f>VALUE(1965)</f>
+        <v>1965</v>
+      </c>
+      <c r="SL404">
+        <f>VALUE(604000)</f>
+        <v>604000</v>
+      </c>
+      <c r="SR404">
+        <v>3560</v>
+      </c>
+      <c r="SS404">
+        <f>SQ404*SR404</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="501:515" x14ac:dyDescent="0.3">
+      <c r="SG405">
+        <v>1</v>
+      </c>
+      <c r="SH405">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SI405">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="SJ405">
+        <f>VALUE(1680)</f>
+        <v>1680</v>
+      </c>
+      <c r="SK405">
+        <f>VALUE(1987)</f>
+        <v>1987</v>
+      </c>
+      <c r="SL405">
+        <f>VALUE(510000)</f>
+        <v>510000</v>
+      </c>
+      <c r="SS405">
+        <f>SQ405*SR405</f>
+        <v>0</v>
+      </c>
+      <c r="SU405">
+        <f>SUM(SS402:SS405)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="501:515" x14ac:dyDescent="0.3">
+      <c r="SG406">
+        <v>1</v>
+      </c>
+      <c r="SH406">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="SI406">
+        <f>VALUE(4.5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="SJ406">
+        <f>VALUE(5420)</f>
+        <v>5420</v>
+      </c>
+      <c r="SK406">
+        <f>VALUE(2001)</f>
+        <v>2001</v>
+      </c>
+      <c r="SL406">
+        <f>VALUE(1230000)</f>
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="407" spans="501:515" x14ac:dyDescent="0.3">
+      <c r="SG407">
+        <v>1</v>
+      </c>
+      <c r="SH407">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SI407">
+        <f>VALUE(2.25)</f>
+        <v>2.25</v>
+      </c>
+      <c r="SJ407">
+        <f>VALUE(1715)</f>
+        <v>1715</v>
+      </c>
+      <c r="SK407">
+        <f>VALUE(1995)</f>
+        <v>1995</v>
+      </c>
+      <c r="SL407">
+        <f>VALUE(257500)</f>
+        <v>257500</v>
+      </c>
+    </row>
+    <row r="408" spans="501:515" x14ac:dyDescent="0.3">
+      <c r="SG408">
+        <v>1</v>
+      </c>
+      <c r="SH408">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SI408">
+        <f>VALUE(1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="SJ408">
+        <f>VALUE(1060)</f>
+        <v>1060</v>
+      </c>
+      <c r="SK408">
+        <f>VALUE(1963)</f>
+        <v>1963</v>
+      </c>
+      <c r="SL408">
+        <f>VALUE(291850)</f>
+        <v>291850</v>
+      </c>
+    </row>
+    <row r="409" spans="501:515" x14ac:dyDescent="0.3">
+      <c r="SG409">
+        <v>1</v>
+      </c>
+      <c r="SH409">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SI409">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="SJ409">
+        <f>VALUE(1780)</f>
+        <v>1780</v>
+      </c>
+      <c r="SK409">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="SL409">
+        <f>VALUE(229500)</f>
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="410" spans="501:515" x14ac:dyDescent="0.3">
+      <c r="SG410">
+        <v>1</v>
+      </c>
+      <c r="SH410">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SI410">
+        <f>VALUE(2.5)</f>
+        <v>2.5</v>
+      </c>
+      <c r="SJ410">
+        <f>VALUE(1890)</f>
+        <v>1890</v>
+      </c>
+      <c r="SK410">
+        <f>VALUE(2003)</f>
+        <v>2003</v>
+      </c>
+      <c r="SL410">
+        <f>VALUE(323000)</f>
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="501" spans="601:615" x14ac:dyDescent="0.3">
+      <c r="WC501">
+        <v>1</v>
+      </c>
+      <c r="WD501">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="WE501">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="WF501">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="WG501">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="WH501">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="WN501" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="WN501" ca="1">MMULT(MMULT(MINVERSE(MMULT(TRANSPOSE(WC501:WG504),(WC501:WG504))),TRANSPOSE(WC501:WG504)),WH501:WH504)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="502" spans="601:615" x14ac:dyDescent="0.3">
+      <c r="WC502">
+        <v>1</v>
+      </c>
+      <c r="WD502">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="WE502">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="WF502">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="WG502">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="WH502">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="WN502">
+        <v>2</v>
+      </c>
+      <c r="WO502">
+        <f>WM502*WN502</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="601:615" x14ac:dyDescent="0.3">
+      <c r="WC503">
+        <v>1</v>
+      </c>
+      <c r="WD503">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="WE503">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="WF503">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="WG503">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="WH503">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="WN503">
+        <v>1</v>
+      </c>
+      <c r="WO503">
+        <f>WM503*WN503</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="601:615" x14ac:dyDescent="0.3">
+      <c r="WC504">
+        <v>1</v>
+      </c>
+      <c r="WD504">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="WE504">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="WF504">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="WG504">
+        <f>VALUE(7)</f>
+        <v>7</v>
+      </c>
+      <c r="WH504">
+        <f>VALUE(96)</f>
+        <v>96</v>
+      </c>
+      <c r="WN504">
+        <v>2</v>
+      </c>
+      <c r="WO504">
+        <f>WM504*WN504</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="601:615" x14ac:dyDescent="0.3">
+      <c r="WO505">
+        <f>WM505*WN505</f>
+        <v>0</v>
+      </c>
+      <c r="WQ505">
+        <f>SUM(WO502:WO505)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="701:702" x14ac:dyDescent="0.3">
+      <c r="ZY601">
+        <v>1</v>
+      </c>
+      <c r="ZZ601">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="801" spans="901:911" x14ac:dyDescent="0.3">
+      <c r="AHQ801">
+        <v>1</v>
+      </c>
+      <c r="AHR801">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHS801">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="AHT801">
+        <f>VALUE(1180)</f>
+        <v>1180</v>
+      </c>
+      <c r="AHU801">
+        <f>VALUE(1955)</f>
+        <v>1955</v>
+      </c>
+      <c r="AHV801">
+        <f>VALUE(221900)</f>
+        <v>221900</v>
+      </c>
+      <c r="AIA801" cm="1">
+        <f t="array" ref="AIA801:AIA805">MMULT(MMULT(MINVERSE(MMULT(TRANSPOSE(AHQ801:AHU810),(AHQ801:AHU810))),TRANSPOSE(AHQ801:AHU810)),AHV801:AHV810)</f>
+        <v>5011981.639772661</v>
+      </c>
+    </row>
+    <row r="802" spans="901:911" x14ac:dyDescent="0.3">
+      <c r="AHQ802">
+        <v>1</v>
+      </c>
+      <c r="AHR802">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHS802">
+        <f>VALUE(2.25)</f>
+        <v>2.25</v>
+      </c>
+      <c r="AHT802">
+        <f>VALUE(2570)</f>
+        <v>2570</v>
+      </c>
+      <c r="AHU802">
+        <f>VALUE(1951)</f>
+        <v>1951</v>
+      </c>
+      <c r="AHV802">
+        <f>VALUE(538000)</f>
+        <v>538000</v>
+      </c>
+      <c r="AIA802">
+        <v>52049.160677000924</v>
+      </c>
+    </row>
+    <row r="803" spans="901:911" x14ac:dyDescent="0.3">
+      <c r="AHQ803">
+        <v>1</v>
+      </c>
+      <c r="AHR803">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AHS803">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="AHT803">
+        <f>VALUE(770)</f>
+        <v>770</v>
+      </c>
+      <c r="AHU803">
+        <f>VALUE(1933)</f>
+        <v>1933</v>
+      </c>
+      <c r="AHV803">
+        <f>VALUE(180000)</f>
+        <v>180000</v>
+      </c>
+      <c r="AIA803">
+        <v>137573.86631982494</v>
+      </c>
+    </row>
+    <row r="804" spans="901:911" x14ac:dyDescent="0.3">
+      <c r="AHQ804">
+        <v>1</v>
+      </c>
+      <c r="AHR804">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AHS804">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHT804">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="AHU804">
+        <f>VALUE(1965)</f>
+        <v>1965</v>
+      </c>
+      <c r="AHV804">
+        <f>VALUE(604000)</f>
+        <v>604000</v>
+      </c>
+      <c r="AIA804">
+        <v>135.62546665653485</v>
+      </c>
+    </row>
+    <row r="805" spans="901:911" x14ac:dyDescent="0.3">
+      <c r="AHQ805">
+        <v>1</v>
+      </c>
+      <c r="AHR805">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHS805">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AHT805">
+        <f>VALUE(1680)</f>
+        <v>1680</v>
+      </c>
+      <c r="AHU805">
+        <f>VALUE(1987)</f>
+        <v>1987</v>
+      </c>
+      <c r="AHV805">
+        <f>VALUE(510000)</f>
+        <v>510000</v>
+      </c>
+      <c r="AIA805">
+        <v>-2686.1736692147074</v>
+      </c>
+    </row>
+    <row r="806" spans="901:911" x14ac:dyDescent="0.3">
+      <c r="AHQ806">
+        <v>1</v>
+      </c>
+      <c r="AHR806">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AHS806">
+        <f>VALUE(4.5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AHT806">
+        <f>VALUE(5420)</f>
+        <v>5420</v>
+      </c>
+      <c r="AHU806">
+        <f>VALUE(2001)</f>
+        <v>2001</v>
+      </c>
+      <c r="AHV806">
+        <f>VALUE(1230000)</f>
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="807" spans="901:911" x14ac:dyDescent="0.3">
+      <c r="AHQ807">
+        <v>1</v>
+      </c>
+      <c r="AHR807">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHS807">
+        <f>VALUE(2.25)</f>
+        <v>2.25</v>
+      </c>
+      <c r="AHT807">
+        <f>VALUE(1715)</f>
+        <v>1715</v>
+      </c>
+      <c r="AHU807">
+        <f>VALUE(1995)</f>
+        <v>1995</v>
+      </c>
+      <c r="AHV807">
+        <f>VALUE(257500)</f>
+        <v>257500</v>
+      </c>
+    </row>
+    <row r="808" spans="901:911" x14ac:dyDescent="0.3">
+      <c r="AHQ808">
+        <v>1</v>
+      </c>
+      <c r="AHR808">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHS808">
+        <f>VALUE(1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AHT808">
+        <f>VALUE(1060)</f>
+        <v>1060</v>
+      </c>
+      <c r="AHU808">
+        <f>VALUE(1963)</f>
+        <v>1963</v>
+      </c>
+      <c r="AHV808">
+        <f>VALUE(291850)</f>
+        <v>291850</v>
+      </c>
+    </row>
+    <row r="809" spans="901:911" x14ac:dyDescent="0.3">
+      <c r="AHQ809">
+        <v>1</v>
+      </c>
+      <c r="AHR809">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHS809">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="AHT809">
+        <f>VALUE(1780)</f>
+        <v>1780</v>
+      </c>
+      <c r="AHU809">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="AHV809">
+        <f>VALUE(229500)</f>
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="810" spans="901:911" x14ac:dyDescent="0.3">
+      <c r="AHQ810">
+        <v>1</v>
+      </c>
+      <c r="AHR810">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHS810">
+        <f>VALUE(2.5)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AHT810">
+        <f>VALUE(1890)</f>
+        <v>1890</v>
+      </c>
+      <c r="AHU810">
+        <f>VALUE(2003)</f>
+        <v>2003</v>
+      </c>
+      <c r="AHV810">
+        <f>VALUE(323000)</f>
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="901" spans="1001:1011" x14ac:dyDescent="0.3">
+      <c r="ALM901">
+        <v>1</v>
+      </c>
+      <c r="ALN901">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="ALO901">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ALP901">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ALQ901">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ALR901">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="ALW901" cm="1">
+        <f t="array" ref="ALW901:ALW905">MMULT(MMULT(MINVERSE(MMULT(TRANSPOSE(ALM901:ALQ904),(ALM901:ALQ904))),TRANSPOSE(ALM901:ALQ904)),ALR901:ALR904)</f>
+        <v>10.4375</v>
+      </c>
+    </row>
+    <row r="902" spans="1001:1011" x14ac:dyDescent="0.3">
+      <c r="ALM902">
+        <v>1</v>
+      </c>
+      <c r="ALN902">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="ALO902">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="ALP902">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ALQ902">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ALR902">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ALW902">
+        <v>-0.7734375</v>
+      </c>
+    </row>
+    <row r="903" spans="1001:1011" x14ac:dyDescent="0.3">
+      <c r="ALM903">
+        <v>1</v>
+      </c>
+      <c r="ALN903">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="ALO903">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="ALP903">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="ALQ903">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ALR903">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ALW903">
+        <v>1.12109375</v>
+      </c>
+    </row>
+    <row r="904" spans="1001:1011" x14ac:dyDescent="0.3">
+      <c r="ALM904">
+        <v>1</v>
+      </c>
+      <c r="ALN904">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="ALO904">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ALP904">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="ALQ904">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ALR904">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="ALW904">
+        <v>-1.439453125</v>
+      </c>
+    </row>
+    <row r="905" spans="1001:1011" x14ac:dyDescent="0.3">
+      <c r="ALW905">
+        <v>0.8203125</v>
+      </c>
+    </row>
+    <row r="1001" spans="1101:1115" x14ac:dyDescent="0.3">
+      <c r="API1001">
+        <v>1</v>
+      </c>
+      <c r="APJ1001">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="APK1001">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="APL1001">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="APM1001">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="APN1001">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="APS1001" cm="1">
+        <f t="array" ref="APS1001:APW1005">MMULT(TRANSPOSE(API1001:APM1004),(API1001:APM1004))</f>
+        <v>4</v>
+      </c>
+      <c r="APT1001">
+        <v>18</v>
+      </c>
+      <c r="APU1001">
+        <v>13</v>
+      </c>
+      <c r="APV1001">
+        <v>15</v>
+      </c>
+      <c r="APW1001">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1002" spans="1101:1115" x14ac:dyDescent="0.3">
+      <c r="API1002">
+        <v>1</v>
+      </c>
+      <c r="APJ1002">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="APK1002">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="APL1002">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="APM1002">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="APN1002">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="APS1002">
+        <v>18</v>
+      </c>
+      <c r="APT1002">
+        <v>90</v>
+      </c>
+      <c r="APU1002">
+        <v>57</v>
+      </c>
+      <c r="APV1002">
+        <v>66</v>
+      </c>
+      <c r="APW1002">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1003" spans="1101:1115" x14ac:dyDescent="0.3">
+      <c r="API1003">
+        <v>1</v>
+      </c>
+      <c r="APJ1003">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="APK1003">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="APL1003">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="APM1003">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="APN1003">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="APS1003">
+        <v>13</v>
+      </c>
+      <c r="APT1003">
+        <v>57</v>
+      </c>
+      <c r="APU1003">
+        <v>47</v>
+      </c>
+      <c r="APV1003">
+        <v>49</v>
+      </c>
+      <c r="APW1003">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1004" spans="1101:1115" x14ac:dyDescent="0.3">
+      <c r="API1004">
+        <v>1</v>
+      </c>
+      <c r="APJ1004">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="APK1004">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="APL1004">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="APM1004">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="APN1004">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="APS1004">
+        <v>15</v>
+      </c>
+      <c r="APT1004">
+        <v>66</v>
+      </c>
+      <c r="APU1004">
+        <v>49</v>
+      </c>
+      <c r="APV1004">
+        <v>57</v>
+      </c>
+      <c r="APW1004">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1005" spans="1101:1115" x14ac:dyDescent="0.3">
+      <c r="APS1005">
+        <v>14</v>
+      </c>
+      <c r="APT1005">
+        <v>63</v>
+      </c>
+      <c r="APU1005">
+        <v>41</v>
+      </c>
+      <c r="APV1005">
+        <v>54</v>
+      </c>
+      <c r="APW1005">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1101" spans="1201:1205" x14ac:dyDescent="0.3">
+      <c r="ATE1101">
+        <v>1</v>
+      </c>
+      <c r="ATF1101">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="ATG1101">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ATH1101">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ATI1101">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1201" spans="1301:1306" x14ac:dyDescent="0.3">
+      <c r="AXA1201">
+        <v>1</v>
+      </c>
+      <c r="AXB1201">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="AXC1201">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AXD1201">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="AXE1201">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AXF1201">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1202" spans="1301:1306" x14ac:dyDescent="0.3">
+      <c r="AXA1202">
+        <v>1</v>
+      </c>
+      <c r="AXB1202">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AXC1202">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="AXD1202">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AXE1202">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AXF1202">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1203" spans="1301:1306" x14ac:dyDescent="0.3">
+      <c r="AXA1203">
+        <v>1</v>
+      </c>
+      <c r="AXB1203">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="AXC1203">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AXD1203">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AXE1203">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AXF1203">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1204" spans="1301:1306" x14ac:dyDescent="0.3">
+      <c r="AXA1204">
+        <v>1</v>
+      </c>
+      <c r="AXB1204">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="AXC1204">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AXD1204">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AXE1204">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AXF1204">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1301" spans="1401:1406" x14ac:dyDescent="0.3">
+      <c r="BAW1301">
+        <v>1</v>
+      </c>
+      <c r="BAX1301">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BAY1301">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BAZ1301">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BBA1301">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="BBB1301">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1302" spans="1401:1406" x14ac:dyDescent="0.3">
+      <c r="BAW1302">
+        <v>1</v>
+      </c>
+      <c r="BAX1302">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="BAY1302">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="BAZ1302">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BBA1302">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BBB1302">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1303" spans="1401:1406" x14ac:dyDescent="0.3">
+      <c r="BAW1303">
+        <v>1</v>
+      </c>
+      <c r="BAX1303">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="BAY1303">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BAZ1303">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="BBA1303">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BBB1303">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1304" spans="1401:1406" x14ac:dyDescent="0.3">
+      <c r="BAW1304">
+        <v>1</v>
+      </c>
+      <c r="BAX1304">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="BAY1304">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BAZ1304">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BBA1304">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="BBB1304">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1401" spans="1501:1506" x14ac:dyDescent="0.3">
+      <c r="BES1401">
+        <v>1</v>
+      </c>
+      <c r="BET1401">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="BEU1401">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BEV1401">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BEW1401">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BEX1401">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1402" spans="1501:1506" x14ac:dyDescent="0.3">
+      <c r="BES1402">
+        <v>1</v>
+      </c>
+      <c r="BET1402">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BEU1402">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BEV1402">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BEW1402">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BEX1402">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1403" spans="1501:1506" x14ac:dyDescent="0.3">
+      <c r="BES1403">
+        <v>1</v>
+      </c>
+      <c r="BET1403">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BEU1403">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BEV1403">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BEW1403">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BEX1403">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1404" spans="1501:1506" x14ac:dyDescent="0.3">
+      <c r="BES1404">
+        <v>1</v>
+      </c>
+      <c r="BET1404">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="BEU1404">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BEV1404">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BEW1404">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BEX1404">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1406" spans="1501:1506" x14ac:dyDescent="0.3">
+      <c r="BES1406" cm="1">
+        <f t="array" ref="BES1406:BEV1410">TRANSPOSE(BES1401:BEW1404)</f>
+        <v>1</v>
+      </c>
+      <c r="BET1406">
+        <v>1</v>
+      </c>
+      <c r="BEU1406">
+        <v>1</v>
+      </c>
+      <c r="BEV1406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1407" spans="1501:1506" x14ac:dyDescent="0.3">
+      <c r="BES1407">
+        <v>5</v>
+      </c>
+      <c r="BET1407">
+        <v>3</v>
+      </c>
+      <c r="BEU1407">
+        <v>3</v>
+      </c>
+      <c r="BEV1407">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1408" spans="1501:1506" x14ac:dyDescent="0.3">
+      <c r="BES1408">
+        <v>4</v>
+      </c>
+      <c r="BET1408">
+        <v>4</v>
+      </c>
+      <c r="BEU1408">
+        <v>2</v>
+      </c>
+      <c r="BEV1408">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1409" spans="1501:1504" x14ac:dyDescent="0.3">
+      <c r="BES1409">
+        <v>3</v>
+      </c>
+      <c r="BET1409">
+        <v>2</v>
+      </c>
+      <c r="BEU1409">
+        <v>4</v>
+      </c>
+      <c r="BEV1409">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1410" spans="1501:1504" x14ac:dyDescent="0.3">
+      <c r="BES1410">
+        <v>2</v>
+      </c>
+      <c r="BET1410">
+        <v>1</v>
+      </c>
+      <c r="BEU1410">
+        <v>1</v>
+      </c>
+      <c r="BEV1410">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1501" spans="1601:1606" x14ac:dyDescent="0.3">
+      <c r="BIO1501">
+        <v>1</v>
+      </c>
+      <c r="BIP1501">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BIQ1501">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BIR1501">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BIS1501">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BIT1501">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1502" spans="1601:1606" x14ac:dyDescent="0.3">
+      <c r="BIO1502">
+        <v>1</v>
+      </c>
+      <c r="BIP1502">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="BIQ1502">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BIR1502">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BIS1502">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BIT1502">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1503" spans="1601:1606" x14ac:dyDescent="0.3">
+      <c r="BIO1503">
+        <v>1</v>
+      </c>
+      <c r="BIP1503">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BIQ1503">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BIR1503">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BIS1503">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BIT1503">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1504" spans="1601:1606" x14ac:dyDescent="0.3">
+      <c r="BIO1504">
+        <v>1</v>
+      </c>
+      <c r="BIP1504">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="BIQ1504">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BIR1504">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BIS1504">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BIT1504">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1506" spans="1601:1601" x14ac:dyDescent="0.3">
+      <c r="BIO1506" t="e" cm="1">
+        <f t="array" ref="BIO1506">TRANSPOSE(Xmat)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1601" spans="1701:1706" x14ac:dyDescent="0.3">
+      <c r="BMK1601">
+        <v>1</v>
+      </c>
+      <c r="BML1601">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BMM1601">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BMN1601">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BMO1601">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BMP1601">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1602" spans="1701:1706" x14ac:dyDescent="0.3">
+      <c r="BMK1602">
+        <v>1</v>
+      </c>
+      <c r="BML1602">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BMM1602">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BMN1602">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BMO1602">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BMP1602">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1603" spans="1701:1706" x14ac:dyDescent="0.3">
+      <c r="BMK1603">
+        <v>1</v>
+      </c>
+      <c r="BML1603">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BMM1603">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BMN1603">
+        <f>VALUE(23)</f>
+        <v>23</v>
+      </c>
+      <c r="BMO1603">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BMP1603">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1604" spans="1701:1706" x14ac:dyDescent="0.3">
+      <c r="BMK1604">
+        <v>1</v>
+      </c>
+      <c r="BML1604">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BMM1604">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BMN1604">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BMO1604">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BMP1604">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1701" spans="1801:1806" x14ac:dyDescent="0.3">
+      <c r="BQG1701">
+        <v>1</v>
+      </c>
+      <c r="BQH1701">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BQI1701">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BQJ1701">
+        <f>VALUE(1180)</f>
+        <v>1180</v>
+      </c>
+      <c r="BQK1701">
+        <f>VALUE(1955)</f>
+        <v>1955</v>
+      </c>
+      <c r="BQL1701">
+        <f>VALUE(221900)</f>
+        <v>221900</v>
+      </c>
+    </row>
+    <row r="1702" spans="1801:1806" x14ac:dyDescent="0.3">
+      <c r="BQG1702">
+        <v>1</v>
+      </c>
+      <c r="BQH1702">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BQI1702">
+        <f>VALUE(2.25)</f>
+        <v>2.25</v>
+      </c>
+      <c r="BQJ1702">
+        <f>VALUE(2570)</f>
+        <v>2570</v>
+      </c>
+      <c r="BQK1702">
+        <f>VALUE(1951)</f>
+        <v>1951</v>
+      </c>
+      <c r="BQL1702">
+        <f>VALUE(538000)</f>
+        <v>538000</v>
+      </c>
+    </row>
+    <row r="1703" spans="1801:1806" x14ac:dyDescent="0.3">
+      <c r="BQG1703">
+        <v>1</v>
+      </c>
+      <c r="BQH1703">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BQI1703">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BQJ1703">
+        <f>VALUE(770)</f>
+        <v>770</v>
+      </c>
+      <c r="BQK1703">
+        <f>VALUE(1933)</f>
+        <v>1933</v>
+      </c>
+      <c r="BQL1703">
+        <f>VALUE(180000)</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="1704" spans="1801:1806" x14ac:dyDescent="0.3">
+      <c r="BQG1704">
+        <v>1</v>
+      </c>
+      <c r="BQH1704">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BQI1704">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BQJ1704">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="BQK1704">
+        <f>VALUE(1965)</f>
+        <v>1965</v>
+      </c>
+      <c r="BQL1704">
+        <f>VALUE(604000)</f>
+        <v>604000</v>
+      </c>
+    </row>
+    <row r="1705" spans="1801:1806" x14ac:dyDescent="0.3">
+      <c r="BQG1705">
+        <v>1</v>
+      </c>
+      <c r="BQH1705">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BQI1705">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BQJ1705">
+        <f>VALUE(1680)</f>
+        <v>1680</v>
+      </c>
+      <c r="BQK1705">
+        <f>VALUE(1987)</f>
+        <v>1987</v>
+      </c>
+      <c r="BQL1705">
+        <f>VALUE(510000)</f>
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="1706" spans="1801:1806" x14ac:dyDescent="0.3">
+      <c r="BQG1706">
+        <v>1</v>
+      </c>
+      <c r="BQH1706">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BQI1706">
+        <f>VALUE(4.5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="BQJ1706">
+        <f>VALUE(5420)</f>
+        <v>5420</v>
+      </c>
+      <c r="BQK1706">
+        <f>VALUE(2001)</f>
+        <v>2001</v>
+      </c>
+      <c r="BQL1706">
+        <f>VALUE(1230000)</f>
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="1707" spans="1801:1806" x14ac:dyDescent="0.3">
+      <c r="BQG1707">
+        <v>1</v>
+      </c>
+      <c r="BQH1707">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BQI1707">
+        <f>VALUE(2.25)</f>
+        <v>2.25</v>
+      </c>
+      <c r="BQJ1707">
+        <f>VALUE(1715)</f>
+        <v>1715</v>
+      </c>
+      <c r="BQK1707">
+        <f>VALUE(1995)</f>
+        <v>1995</v>
+      </c>
+      <c r="BQL1707">
+        <f>VALUE(257500)</f>
+        <v>257500</v>
+      </c>
+    </row>
+    <row r="1708" spans="1801:1806" x14ac:dyDescent="0.3">
+      <c r="BQG1708">
+        <v>1</v>
+      </c>
+      <c r="BQH1708">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BQI1708">
+        <f>VALUE(1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="BQJ1708">
+        <f>VALUE(1060)</f>
+        <v>1060</v>
+      </c>
+      <c r="BQK1708">
+        <f>VALUE(1963)</f>
+        <v>1963</v>
+      </c>
+      <c r="BQL1708">
+        <f>VALUE(291850)</f>
+        <v>291850</v>
+      </c>
+    </row>
+    <row r="1709" spans="1801:1806" x14ac:dyDescent="0.3">
+      <c r="BQG1709">
+        <v>1</v>
+      </c>
+      <c r="BQH1709">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BQI1709">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BQJ1709">
+        <f>VALUE(1780)</f>
+        <v>1780</v>
+      </c>
+      <c r="BQK1709">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="BQL1709">
+        <f>VALUE(229500)</f>
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="1710" spans="1801:1806" x14ac:dyDescent="0.3">
+      <c r="BQG1710">
+        <v>1</v>
+      </c>
+      <c r="BQH1710">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BQI1710">
+        <f>VALUE(2.5)</f>
+        <v>2.5</v>
+      </c>
+      <c r="BQJ1710">
+        <f>VALUE(1890)</f>
+        <v>1890</v>
+      </c>
+      <c r="BQK1710">
+        <f>VALUE(2003)</f>
+        <v>2003</v>
+      </c>
+      <c r="BQL1710">
+        <f>VALUE(323000)</f>
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="1801" spans="1901:1908" x14ac:dyDescent="0.3">
+      <c r="BUC1801">
+        <v>1</v>
+      </c>
+      <c r="BUD1801">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BUE1801">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BUF1801">
+        <f>VALUE(1180)</f>
+        <v>1180</v>
+      </c>
+      <c r="BUG1801">
+        <f>VALUE(1955)</f>
+        <v>1955</v>
+      </c>
+      <c r="BUH1801">
+        <f>VALUE(221900)</f>
+        <v>221900</v>
+      </c>
+      <c r="BUJ1801" t="e" cm="1">
+        <f t="array" ref="BUJ1801">MMULT(MINVERSE(BUC1801:BUG1810),BUH1801:BUH1810)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1802" spans="1901:1908" x14ac:dyDescent="0.3">
+      <c r="BUC1802">
+        <v>1</v>
+      </c>
+      <c r="BUD1802">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BUE1802">
+        <v>2.25</v>
+      </c>
+      <c r="BUF1802">
+        <f>VALUE(2570)</f>
+        <v>2570</v>
+      </c>
+      <c r="BUG1802">
+        <f>VALUE(1951)</f>
+        <v>1951</v>
+      </c>
+      <c r="BUH1802">
+        <f>VALUE(538000)</f>
+        <v>538000</v>
+      </c>
+    </row>
+    <row r="1803" spans="1901:1908" x14ac:dyDescent="0.3">
+      <c r="BUC1803">
+        <v>1</v>
+      </c>
+      <c r="BUD1803">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BUE1803">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BUF1803">
+        <f>VALUE(770)</f>
+        <v>770</v>
+      </c>
+      <c r="BUG1803">
+        <f>VALUE(1933)</f>
+        <v>1933</v>
+      </c>
+      <c r="BUH1803">
+        <f>VALUE(180000)</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="1804" spans="1901:1908" x14ac:dyDescent="0.3">
+      <c r="BUC1804">
+        <v>1</v>
+      </c>
+      <c r="BUD1804">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BUE1804">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BUF1804">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="BUG1804">
+        <f>VALUE(1965)</f>
+        <v>1965</v>
+      </c>
+      <c r="BUH1804">
+        <f>VALUE(604000)</f>
+        <v>604000</v>
+      </c>
+    </row>
+    <row r="1805" spans="1901:1908" x14ac:dyDescent="0.3">
+      <c r="BUC1805">
+        <v>1</v>
+      </c>
+      <c r="BUD1805">
+        <v>3</v>
+      </c>
+      <c r="BUE1805">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BUF1805">
+        <f>VALUE(1680)</f>
+        <v>1680</v>
+      </c>
+      <c r="BUG1805">
+        <f>VALUE(1987)</f>
+        <v>1987</v>
+      </c>
+      <c r="BUH1805">
+        <f>VALUE(510000)</f>
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="1806" spans="1901:1908" x14ac:dyDescent="0.3">
+      <c r="BUC1806">
+        <v>1</v>
+      </c>
+      <c r="BUD1806">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BUE1806">
+        <f>VALUE(4.5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="BUF1806">
+        <f>VALUE(5420)</f>
+        <v>5420</v>
+      </c>
+      <c r="BUG1806">
+        <f>VALUE(2001)</f>
+        <v>2001</v>
+      </c>
+      <c r="BUH1806">
+        <f>VALUE(1230000)</f>
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="1807" spans="1901:1908" x14ac:dyDescent="0.3">
+      <c r="BUC1807">
+        <v>1</v>
+      </c>
+      <c r="BUD1807">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BUE1807">
+        <f>VALUE(2.25)</f>
+        <v>2.25</v>
+      </c>
+      <c r="BUF1807">
+        <f>VALUE(1715)</f>
+        <v>1715</v>
+      </c>
+      <c r="BUG1807">
+        <f>VALUE(1995)</f>
+        <v>1995</v>
+      </c>
+      <c r="BUH1807">
+        <f>VALUE(257500)</f>
+        <v>257500</v>
+      </c>
+    </row>
+    <row r="1808" spans="1901:1908" x14ac:dyDescent="0.3">
+      <c r="BUC1808">
+        <v>1</v>
+      </c>
+      <c r="BUD1808">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BUE1808">
+        <f>VALUE(1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="BUF1808">
+        <f>VALUE(1060)</f>
+        <v>1060</v>
+      </c>
+      <c r="BUG1808">
+        <f>VALUE(1963)</f>
+        <v>1963</v>
+      </c>
+      <c r="BUH1808">
+        <f>VALUE(291850)</f>
+        <v>291850</v>
+      </c>
+    </row>
+    <row r="1809" spans="1901:1906" x14ac:dyDescent="0.3">
+      <c r="BUC1809">
+        <v>1</v>
+      </c>
+      <c r="BUD1809">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BUE1809">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BUF1809">
+        <f>VALUE(1780)</f>
+        <v>1780</v>
+      </c>
+      <c r="BUG1809">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="BUH1809">
+        <f>VALUE(229500)</f>
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="1810" spans="1901:1906" x14ac:dyDescent="0.3">
+      <c r="BUC1810">
+        <v>1</v>
+      </c>
+      <c r="BUD1810">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BUE1810">
+        <f>VALUE(2.5)</f>
+        <v>2.5</v>
+      </c>
+      <c r="BUF1810">
+        <f>VALUE(1890)</f>
+        <v>1890</v>
+      </c>
+      <c r="BUG1810">
+        <f>VALUE(2003)</f>
+        <v>2003</v>
+      </c>
+      <c r="BUH1810">
+        <f>VALUE(323000)</f>
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="1901" spans="2001:2011" x14ac:dyDescent="0.3">
+      <c r="BXY1901">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BXZ1901">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BYA1901">
+        <f>VALUE(1180)</f>
+        <v>1180</v>
+      </c>
+      <c r="BYB1901">
+        <f>VALUE(1955)</f>
+        <v>1955</v>
+      </c>
+      <c r="BYC1901">
+        <f>VALUE(221900)</f>
+        <v>221900</v>
+      </c>
+      <c r="BYE1901" t="e" cm="1">
+        <f t="array" ref="BYE1901">MMULT(MINVERSE(BXY1901:BYB1910),BYC1901:BYC1910)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BYI1901" t="e" cm="1">
+        <f t="array" ref="BYI1901">MMULT(MINVERSE(BXY1901:BYB1910),BYC1901:BYC1910)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1902" spans="2001:2011" x14ac:dyDescent="0.3">
+      <c r="BXY1902">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BXZ1902">
+        <v>2.25</v>
+      </c>
+      <c r="BYA1902">
+        <f>VALUE(2570)</f>
+        <v>2570</v>
+      </c>
+      <c r="BYB1902">
+        <f>VALUE(1951)</f>
+        <v>1951</v>
+      </c>
+      <c r="BYC1902">
         <f>VALUE(5328000)</f>
         <v>5328000</v>
       </c>
     </row>
-    <row r="203" spans="301:311" x14ac:dyDescent="0.3">
-      <c r="KO203">
-        <f>VALUE(2)</f>
-        <v>2</v>
-      </c>
-      <c r="KP203">
+    <row r="1903" spans="2001:2011" x14ac:dyDescent="0.3">
+      <c r="BXY1903">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BXZ1903">
         <f>VALUE(1)</f>
         <v>1</v>
       </c>
-      <c r="KQ203">
+      <c r="BYA1903">
         <f>VALUE(770)</f>
         <v>770</v>
       </c>
-      <c r="KR203">
+      <c r="BYB1903">
         <f>VALUE(1933)</f>
         <v>1933</v>
       </c>
-      <c r="KS203">
+      <c r="BYC1903">
         <f>VALUE(180000)</f>
         <v>180000</v>
       </c>
     </row>
-    <row r="204" spans="301:311" x14ac:dyDescent="0.3">
-      <c r="KO204">
+    <row r="1904" spans="2001:2011" x14ac:dyDescent="0.3">
+      <c r="BXY1904">
         <f>VALUE(1)</f>
         <v>1</v>
       </c>
-      <c r="KP204">
-        <f>VALUE(3)</f>
-        <v>3</v>
-      </c>
-      <c r="KQ204">
+      <c r="BXZ1904">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BYA1904">
         <f>VALUE(1960)</f>
         <v>1960</v>
       </c>
-      <c r="KR204">
+      <c r="BYB1904">
         <f>VALUE(1965)</f>
         <v>1965</v>
       </c>
-      <c r="KS204">
+      <c r="BYC1904">
         <f>VALUE(604000)</f>
         <v>604000</v>
       </c>
     </row>
-    <row r="205" spans="301:311" x14ac:dyDescent="0.3">
-      <c r="KO205">
-        <f>VALUE(3)</f>
-        <v>3</v>
-      </c>
-      <c r="KP205">
-        <f>VALUE(2)</f>
-        <v>2</v>
-      </c>
-      <c r="KQ205">
+    <row r="1905" spans="2001:2005" x14ac:dyDescent="0.3">
+      <c r="BXY1905">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BXZ1905">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BYA1905">
         <f>VALUE(1680)</f>
         <v>1680</v>
       </c>
-      <c r="KR205">
+      <c r="BYB1905">
         <f>VALUE(1987)</f>
         <v>1987</v>
       </c>
-      <c r="KS205">
+      <c r="BYC1905">
         <f>VALUE(510000)</f>
         <v>510000</v>
       </c>
     </row>
-    <row r="206" spans="301:311" x14ac:dyDescent="0.3">
-      <c r="KO206">
-        <v>4</v>
-      </c>
-      <c r="KP206">
+    <row r="1906" spans="2001:2005" x14ac:dyDescent="0.3">
+      <c r="BXY1906">
+        <v>4</v>
+      </c>
+      <c r="BXZ1906">
         <f>VALUE(4.5)</f>
         <v>4.5</v>
       </c>
-      <c r="KQ206">
+      <c r="BYA1906">
         <f>VALUE(5420)</f>
         <v>5420</v>
       </c>
-      <c r="KR206">
+      <c r="BYB1906">
         <f>VALUE(2001)</f>
         <v>2001</v>
       </c>
-      <c r="KS206">
+      <c r="BYC1906">
         <f>VALUE(1230000)</f>
         <v>1230000</v>
       </c>
     </row>
-    <row r="207" spans="301:311" x14ac:dyDescent="0.3">
-      <c r="KO207">
-        <f>VALUE(3)</f>
-        <v>3</v>
-      </c>
-      <c r="KP207">
+    <row r="1907" spans="2001:2005" x14ac:dyDescent="0.3">
+      <c r="BXY1907">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BXZ1907">
         <f>VALUE(2.25)</f>
         <v>2.25</v>
       </c>
-      <c r="KQ207">
+      <c r="BYA1907">
         <f>VALUE(1715)</f>
         <v>1715</v>
       </c>
-      <c r="KR207">
+      <c r="BYB1907">
         <f>VALUE(1995)</f>
         <v>1995</v>
       </c>
-      <c r="KS207">
+      <c r="BYC1907">
         <f>VALUE(257500)</f>
         <v>257500</v>
       </c>
     </row>
-    <row r="208" spans="301:311" x14ac:dyDescent="0.3">
-      <c r="KO208">
-        <f>VALUE(3)</f>
-        <v>3</v>
-      </c>
-      <c r="KP208">
+    <row r="1908" spans="2001:2005" x14ac:dyDescent="0.3">
+      <c r="BXY1908">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BXZ1908">
         <f>VALUE(1.5)</f>
         <v>1.5</v>
       </c>
-      <c r="KQ208">
+      <c r="BYA1908">
         <f>VALUE(1060)</f>
         <v>1060</v>
       </c>
-      <c r="KR208">
+      <c r="BYB1908">
         <f>VALUE(1963)</f>
         <v>1963</v>
       </c>
-      <c r="KS208">
+      <c r="BYC1908">
         <f>VALUE(291850)</f>
         <v>291850</v>
       </c>
     </row>
-    <row r="209" spans="301:305" x14ac:dyDescent="0.3">
-      <c r="KO209">
-        <f>VALUE(3)</f>
-        <v>3</v>
-      </c>
-      <c r="KP209">
+    <row r="1909" spans="2001:2005" x14ac:dyDescent="0.3">
+      <c r="BXY1909">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BXZ1909">
         <f>VALUE(1)</f>
         <v>1</v>
       </c>
-      <c r="KQ209">
+      <c r="BYA1909">
         <f>VALUE(1780)</f>
         <v>1780</v>
       </c>
-      <c r="KR209">
+      <c r="BYB1909">
         <f>VALUE(1960)</f>
         <v>1960</v>
       </c>
-      <c r="KS209">
+      <c r="BYC1909">
         <f>VALUE(229500)</f>
         <v>229500</v>
       </c>
     </row>
-    <row r="210" spans="301:305" x14ac:dyDescent="0.3">
-      <c r="KO210">
-        <f>VALUE(3)</f>
-        <v>3</v>
-      </c>
-      <c r="KP210">
+    <row r="1910" spans="2001:2005" x14ac:dyDescent="0.3">
+      <c r="BXY1910">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BXZ1910">
         <f>VALUE(2.5)</f>
         <v>2.5</v>
       </c>
-      <c r="KQ210">
+      <c r="BYA1910">
         <f>VALUE(1890)</f>
         <v>1890</v>
       </c>
-      <c r="KR210">
+      <c r="BYB1910">
         <f>VALUE(2003)</f>
         <v>2003</v>
       </c>
-      <c r="KS210">
+      <c r="BYC1910">
         <f>VALUE(323000)</f>
         <v>323000</v>
       </c>
     </row>
-    <row r="401" spans="501:511" x14ac:dyDescent="0.3">
-      <c r="SG401">
-        <v>1</v>
-      </c>
-      <c r="SH401">
-        <v>1</v>
-      </c>
-      <c r="SI401">
-        <v>1</v>
-      </c>
-      <c r="SJ401">
-        <v>1</v>
-      </c>
-      <c r="SK401">
-        <v>1</v>
-      </c>
-      <c r="SL401">
-        <f t="shared" ref="SL401:SP404" si="0">VALUE(SG401)</f>
-        <v>1</v>
-      </c>
-      <c r="SM401">
+    <row r="2101" spans="2201:2211" x14ac:dyDescent="0.3">
+      <c r="CFQ2101">
+        <v>1</v>
+      </c>
+      <c r="CFR2101">
+        <v>1</v>
+      </c>
+      <c r="CFS2101">
+        <v>1</v>
+      </c>
+      <c r="CFT2101">
+        <v>1</v>
+      </c>
+      <c r="CFU2101">
+        <v>1</v>
+      </c>
+      <c r="CFV2101">
+        <f t="shared" ref="CFV2101:CFZ2104" si="0">VALUE(CFQ2101)</f>
+        <v>1</v>
+      </c>
+      <c r="CFW2101">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="SN401">
+      <c r="CFX2101">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="SO401">
+      <c r="CFY2101">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="SP401">
+      <c r="CFZ2101">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="SQ401" t="e" cm="1">
-        <f t="array" ref="SQ401">MMULT(MINVERSE(SL401:SO404),SP401:SP404)</f>
+      <c r="CGA2101" t="e" cm="1">
+        <f t="array" ref="CGA2101">MMULT(MINVERSE(CFV2101:CFY2104),CFZ2101:CFZ2104)</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="402" spans="501:511" x14ac:dyDescent="0.3">
-      <c r="SG402">
-        <v>1</v>
-      </c>
-      <c r="SH402">
-        <v>1</v>
-      </c>
-      <c r="SI402">
-        <v>1</v>
-      </c>
-      <c r="SJ402">
-        <v>1</v>
-      </c>
-      <c r="SK402">
-        <v>1</v>
-      </c>
-      <c r="SL402">
+    <row r="2102" spans="2201:2211" x14ac:dyDescent="0.3">
+      <c r="CFQ2102">
+        <v>1</v>
+      </c>
+      <c r="CFR2102">
+        <v>1</v>
+      </c>
+      <c r="CFS2102">
+        <v>1</v>
+      </c>
+      <c r="CFT2102">
+        <v>1</v>
+      </c>
+      <c r="CFU2102">
+        <v>1</v>
+      </c>
+      <c r="CFV2102">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="SM402">
+      <c r="CFW2102">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="SN402">
+      <c r="CFX2102">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="SO402">
+      <c r="CFY2102">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="SP402">
+      <c r="CFZ2102">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="501:511" x14ac:dyDescent="0.3">
-      <c r="SG403">
-        <v>1</v>
-      </c>
-      <c r="SH403">
-        <v>1</v>
-      </c>
-      <c r="SI403">
-        <v>1</v>
-      </c>
-      <c r="SJ403">
-        <v>1</v>
-      </c>
-      <c r="SK403">
-        <v>1</v>
-      </c>
-      <c r="SL403">
+    <row r="2103" spans="2201:2211" x14ac:dyDescent="0.3">
+      <c r="CFQ2103">
+        <v>1</v>
+      </c>
+      <c r="CFR2103">
+        <v>1</v>
+      </c>
+      <c r="CFS2103">
+        <v>1</v>
+      </c>
+      <c r="CFT2103">
+        <v>1</v>
+      </c>
+      <c r="CFU2103">
+        <v>1</v>
+      </c>
+      <c r="CFV2103">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="SM403">
+      <c r="CFW2103">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="SN403">
+      <c r="CFX2103">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="SO403">
+      <c r="CFY2103">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="SP403">
+      <c r="CFZ2103">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="501:511" x14ac:dyDescent="0.3">
-      <c r="SG404">
-        <v>1</v>
-      </c>
-      <c r="SH404">
-        <v>1</v>
-      </c>
-      <c r="SI404">
-        <v>1</v>
-      </c>
-      <c r="SJ404">
-        <v>1</v>
-      </c>
-      <c r="SK404">
-        <v>1</v>
-      </c>
-      <c r="SL404">
+    <row r="2104" spans="2201:2211" x14ac:dyDescent="0.3">
+      <c r="CFQ2104">
+        <v>1</v>
+      </c>
+      <c r="CFR2104">
+        <v>1</v>
+      </c>
+      <c r="CFS2104">
+        <v>1</v>
+      </c>
+      <c r="CFT2104">
+        <v>1</v>
+      </c>
+      <c r="CFU2104">
+        <v>1</v>
+      </c>
+      <c r="CFV2104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="SM404">
+      <c r="CFW2104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="SN404">
+      <c r="CFX2104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="SO404">
+      <c r="CFY2104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="SP404">
+      <c r="CFZ2104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="601:607" x14ac:dyDescent="0.3">
-      <c r="WC501">
-        <v>3</v>
-      </c>
-      <c r="WD501">
-        <v>1</v>
-      </c>
-      <c r="WE501">
+    <row r="2201" spans="2301:2307" x14ac:dyDescent="0.3">
+      <c r="CJM2201">
+        <v>3</v>
+      </c>
+      <c r="CJN2201">
+        <v>1</v>
+      </c>
+      <c r="CJO2201">
         <v>1180</v>
       </c>
-      <c r="WF501">
+      <c r="CJP2201">
         <v>1955</v>
       </c>
-      <c r="WG501">
+      <c r="CJQ2201">
         <v>221900</v>
       </c>
-      <c r="WI501" t="e" cm="1">
-        <f t="array" ref="WI501">MMULT(MINVERSE(WC501:WF510),WG501:WG510)</f>
+      <c r="CJS2201" t="e" cm="1">
+        <f t="array" ref="CJS2201">MMULT(MINVERSE(CJM2201:CJP2210),CJQ2201:CJQ2210)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="502" spans="601:607" x14ac:dyDescent="0.3">
-      <c r="WC502">
-        <v>3</v>
-      </c>
-      <c r="WD502">
+    <row r="2202" spans="2301:2307" x14ac:dyDescent="0.3">
+      <c r="CJM2202">
+        <v>3</v>
+      </c>
+      <c r="CJN2202">
         <v>2.25</v>
       </c>
-      <c r="WE502">
+      <c r="CJO2202">
         <v>2570</v>
       </c>
-      <c r="WF502">
+      <c r="CJP2202">
         <v>1951</v>
       </c>
-      <c r="WG502">
+      <c r="CJQ2202">
         <v>538000</v>
       </c>
     </row>
-    <row r="503" spans="601:607" x14ac:dyDescent="0.3">
-      <c r="WC503">
-        <v>2</v>
-      </c>
-      <c r="WD503">
-        <v>1</v>
-      </c>
-      <c r="WE503">
+    <row r="2203" spans="2301:2307" x14ac:dyDescent="0.3">
+      <c r="CJM2203">
+        <v>2</v>
+      </c>
+      <c r="CJN2203">
+        <v>1</v>
+      </c>
+      <c r="CJO2203">
         <v>770</v>
       </c>
-      <c r="WF503">
+      <c r="CJP2203">
         <v>1933</v>
       </c>
-      <c r="WG503">
+      <c r="CJQ2203">
         <v>180000</v>
       </c>
     </row>
-    <row r="504" spans="601:607" x14ac:dyDescent="0.3">
-      <c r="WC504">
-        <v>4</v>
-      </c>
-      <c r="WD504">
-        <v>3</v>
-      </c>
-      <c r="WE504">
+    <row r="2204" spans="2301:2307" x14ac:dyDescent="0.3">
+      <c r="CJM2204">
+        <v>4</v>
+      </c>
+      <c r="CJN2204">
+        <v>3</v>
+      </c>
+      <c r="CJO2204">
         <v>1960</v>
       </c>
-      <c r="WF504">
+      <c r="CJP2204">
         <v>1965</v>
       </c>
-      <c r="WG504">
+      <c r="CJQ2204">
         <v>604000</v>
       </c>
     </row>
-    <row r="505" spans="601:607" x14ac:dyDescent="0.3">
-      <c r="WC505">
-        <v>3</v>
-      </c>
-      <c r="WD505">
-        <v>2</v>
-      </c>
-      <c r="WE505">
+    <row r="2205" spans="2301:2307" x14ac:dyDescent="0.3">
+      <c r="CJM2205">
+        <v>3</v>
+      </c>
+      <c r="CJN2205">
+        <v>2</v>
+      </c>
+      <c r="CJO2205">
         <v>1680</v>
       </c>
-      <c r="WF505">
+      <c r="CJP2205">
         <v>1987</v>
       </c>
-      <c r="WG505">
+      <c r="CJQ2205">
         <v>510000</v>
       </c>
     </row>
-    <row r="506" spans="601:607" x14ac:dyDescent="0.3">
-      <c r="WC506">
-        <v>4</v>
-      </c>
-      <c r="WD506">
+    <row r="2206" spans="2301:2307" x14ac:dyDescent="0.3">
+      <c r="CJM2206">
+        <v>4</v>
+      </c>
+      <c r="CJN2206">
         <v>4.5</v>
       </c>
-      <c r="WE506">
+      <c r="CJO2206">
         <v>5420</v>
       </c>
-      <c r="WF506">
+      <c r="CJP2206">
         <v>2001</v>
       </c>
-      <c r="WG506">
+      <c r="CJQ2206">
         <v>1230000</v>
       </c>
     </row>
-    <row r="507" spans="601:607" x14ac:dyDescent="0.3">
-      <c r="WC507">
-        <v>3</v>
-      </c>
-      <c r="WD507">
+    <row r="2207" spans="2301:2307" x14ac:dyDescent="0.3">
+      <c r="CJM2207">
+        <v>3</v>
+      </c>
+      <c r="CJN2207">
         <v>2.25</v>
       </c>
-      <c r="WE507">
+      <c r="CJO2207">
         <v>1715</v>
       </c>
-      <c r="WF507">
+      <c r="CJP2207">
         <v>1995</v>
       </c>
-      <c r="WG507">
+      <c r="CJQ2207">
         <v>257500</v>
       </c>
     </row>
-    <row r="508" spans="601:607" x14ac:dyDescent="0.3">
-      <c r="WC508">
-        <v>3</v>
-      </c>
-      <c r="WD508">
+    <row r="2208" spans="2301:2307" x14ac:dyDescent="0.3">
+      <c r="CJM2208">
+        <v>3</v>
+      </c>
+      <c r="CJN2208">
         <v>1.5</v>
       </c>
-      <c r="WE508">
+      <c r="CJO2208">
         <v>1060</v>
       </c>
-      <c r="WF508">
+      <c r="CJP2208">
         <v>1963</v>
       </c>
-      <c r="WG508">
+      <c r="CJQ2208">
         <v>291850</v>
       </c>
     </row>
-    <row r="509" spans="601:607" x14ac:dyDescent="0.3">
-      <c r="WC509">
-        <v>3</v>
-      </c>
-      <c r="WD509">
-        <v>1</v>
-      </c>
-      <c r="WE509">
+    <row r="2209" spans="2301:2305" x14ac:dyDescent="0.3">
+      <c r="CJM2209">
+        <v>3</v>
+      </c>
+      <c r="CJN2209">
+        <v>1</v>
+      </c>
+      <c r="CJO2209">
         <v>1780</v>
       </c>
-      <c r="WF509">
+      <c r="CJP2209">
         <v>1960</v>
       </c>
-      <c r="WG509">
+      <c r="CJQ2209">
         <v>229500</v>
       </c>
     </row>
-    <row r="510" spans="601:607" x14ac:dyDescent="0.3">
-      <c r="WC510">
-        <v>3</v>
-      </c>
-      <c r="WD510">
+    <row r="2210" spans="2301:2305" x14ac:dyDescent="0.3">
+      <c r="CJM2210">
+        <v>3</v>
+      </c>
+      <c r="CJN2210">
         <v>2.5</v>
       </c>
-      <c r="WE510">
+      <c r="CJO2210">
         <v>1890</v>
       </c>
-      <c r="WF510">
+      <c r="CJP2210">
         <v>2003</v>
       </c>
-      <c r="WG510">
+      <c r="CJQ2210">
         <v>323000</v>
       </c>
     </row>
-    <row r="601" spans="701:707" x14ac:dyDescent="0.3">
-      <c r="ZY601">
-        <v>3</v>
-      </c>
-      <c r="AAA601">
+    <row r="2301" spans="2401:2407" x14ac:dyDescent="0.3">
+      <c r="CNI2301">
+        <v>3</v>
+      </c>
+      <c r="CNK2301">
         <v>1180</v>
       </c>
-      <c r="AAB601">
+      <c r="CNL2301">
         <v>1955</v>
       </c>
-      <c r="AAC601">
+      <c r="CNM2301">
         <v>221900</v>
       </c>
-      <c r="AAE601" t="s">
+      <c r="CNO2301" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="701:707" x14ac:dyDescent="0.3">
-      <c r="ZY602">
-        <v>3</v>
-      </c>
-      <c r="ZZ602">
+    <row r="2302" spans="2401:2407" x14ac:dyDescent="0.3">
+      <c r="CNI2302">
+        <v>3</v>
+      </c>
+      <c r="CNJ2302">
         <v>2.25</v>
       </c>
-      <c r="AAA602">
+      <c r="CNK2302">
         <v>2570</v>
       </c>
-      <c r="AAB602">
+      <c r="CNL2302">
         <v>1951</v>
       </c>
-      <c r="AAC602">
+      <c r="CNM2302">
         <v>538000</v>
       </c>
     </row>
-    <row r="603" spans="701:707" x14ac:dyDescent="0.3">
-      <c r="ZY603">
-        <v>2</v>
-      </c>
-      <c r="ZZ603">
-        <v>1</v>
-      </c>
-      <c r="AAA603">
+    <row r="2303" spans="2401:2407" x14ac:dyDescent="0.3">
+      <c r="CNI2303">
+        <v>2</v>
+      </c>
+      <c r="CNJ2303">
+        <v>1</v>
+      </c>
+      <c r="CNK2303">
         <v>770</v>
       </c>
-      <c r="AAB603">
+      <c r="CNL2303">
         <v>1933</v>
       </c>
-      <c r="AAC603">
+      <c r="CNM2303">
         <v>180000</v>
       </c>
     </row>
-    <row r="604" spans="701:707" x14ac:dyDescent="0.3">
-      <c r="ZY604">
-        <v>4</v>
-      </c>
-      <c r="ZZ604">
-        <v>3</v>
-      </c>
-      <c r="AAA604">
+    <row r="2304" spans="2401:2407" x14ac:dyDescent="0.3">
+      <c r="CNI2304">
+        <v>4</v>
+      </c>
+      <c r="CNJ2304">
+        <v>3</v>
+      </c>
+      <c r="CNK2304">
         <v>1960</v>
       </c>
-      <c r="AAB604">
+      <c r="CNL2304">
         <v>1965</v>
       </c>
-      <c r="AAC604">
+      <c r="CNM2304">
         <v>604000</v>
       </c>
     </row>
-    <row r="605" spans="701:707" x14ac:dyDescent="0.3">
-      <c r="ZY605">
-        <v>3</v>
-      </c>
-      <c r="ZZ605">
-        <v>2</v>
-      </c>
-      <c r="AAA605">
+    <row r="2305" spans="2401:2405" x14ac:dyDescent="0.3">
+      <c r="CNI2305">
+        <v>3</v>
+      </c>
+      <c r="CNJ2305">
+        <v>2</v>
+      </c>
+      <c r="CNK2305">
         <v>1680</v>
       </c>
-      <c r="AAB605">
+      <c r="CNL2305">
         <v>1987</v>
       </c>
-      <c r="AAC605">
+      <c r="CNM2305">
         <v>510000</v>
       </c>
     </row>
-    <row r="606" spans="701:707" x14ac:dyDescent="0.3">
-      <c r="ZY606">
-        <v>4</v>
-      </c>
-      <c r="ZZ606">
+    <row r="2306" spans="2401:2405" x14ac:dyDescent="0.3">
+      <c r="CNI2306">
+        <v>4</v>
+      </c>
+      <c r="CNJ2306">
         <v>4.5</v>
       </c>
-      <c r="AAA606">
+      <c r="CNK2306">
         <v>5420</v>
       </c>
-      <c r="AAB606">
+      <c r="CNL2306">
         <v>2001</v>
       </c>
-      <c r="AAC606">
+      <c r="CNM2306">
         <v>1230000</v>
       </c>
     </row>
-    <row r="607" spans="701:707" x14ac:dyDescent="0.3">
-      <c r="ZY607">
-        <v>3</v>
-      </c>
-      <c r="ZZ607">
+    <row r="2307" spans="2401:2405" x14ac:dyDescent="0.3">
+      <c r="CNI2307">
+        <v>3</v>
+      </c>
+      <c r="CNJ2307">
         <v>2.25</v>
       </c>
-      <c r="AAA607">
+      <c r="CNK2307">
         <v>1715</v>
       </c>
-      <c r="AAB607">
+      <c r="CNL2307">
         <v>1995</v>
       </c>
-      <c r="AAC607">
+      <c r="CNM2307">
         <v>257500</v>
       </c>
     </row>
-    <row r="608" spans="701:707" x14ac:dyDescent="0.3">
-      <c r="ZY608">
-        <v>3</v>
-      </c>
-      <c r="ZZ608">
+    <row r="2308" spans="2401:2405" x14ac:dyDescent="0.3">
+      <c r="CNI2308">
+        <v>3</v>
+      </c>
+      <c r="CNJ2308">
         <v>1.5</v>
       </c>
-      <c r="AAA608">
+      <c r="CNK2308">
         <v>1060</v>
       </c>
-      <c r="AAB608">
+      <c r="CNL2308">
         <v>1963</v>
       </c>
-      <c r="AAC608">
+      <c r="CNM2308">
         <v>291850</v>
       </c>
     </row>
-    <row r="609" spans="701:705" x14ac:dyDescent="0.3">
-      <c r="ZY609">
-        <v>3</v>
-      </c>
-      <c r="ZZ609">
-        <v>1</v>
-      </c>
-      <c r="AAA609">
+    <row r="2309" spans="2401:2405" x14ac:dyDescent="0.3">
+      <c r="CNI2309">
+        <v>3</v>
+      </c>
+      <c r="CNJ2309">
+        <v>1</v>
+      </c>
+      <c r="CNK2309">
         <v>1750</v>
       </c>
-      <c r="AAB609">
+      <c r="CNL2309">
         <v>1960</v>
       </c>
-      <c r="AAC609">
+      <c r="CNM2309">
         <v>229500</v>
       </c>
     </row>
-    <row r="610" spans="701:705" x14ac:dyDescent="0.3">
-      <c r="ZY610">
-        <v>3</v>
-      </c>
-      <c r="ZZ610">
+    <row r="2310" spans="2401:2405" x14ac:dyDescent="0.3">
+      <c r="CNI2310">
+        <v>3</v>
+      </c>
+      <c r="CNJ2310">
         <v>2.5</v>
       </c>
-      <c r="AAA610">
+      <c r="CNK2310">
         <v>1890</v>
       </c>
-      <c r="AAB610">
+      <c r="CNL2310">
         <v>2003</v>
       </c>
-      <c r="AAC610">
+      <c r="CNM2310">
         <v>323000</v>
       </c>
     </row>
-    <row r="701" spans="801:805" x14ac:dyDescent="0.3">
-      <c r="ADU701">
-        <v>2</v>
-      </c>
-      <c r="ADV701">
-        <v>2</v>
-      </c>
-      <c r="ADW701">
+    <row r="2401" spans="2501:2505" x14ac:dyDescent="0.3">
+      <c r="CRE2401">
+        <v>2</v>
+      </c>
+      <c r="CRF2401">
+        <v>2</v>
+      </c>
+      <c r="CRG2401">
         <v>2000</v>
       </c>
-      <c r="ADX701">
+      <c r="CRH2401">
         <v>3215501</v>
       </c>
-      <c r="ADY701">
+      <c r="CRI2401">
         <v>10301604045</v>
       </c>
     </row>
-    <row r="702" spans="801:805" x14ac:dyDescent="0.3">
-      <c r="ADU702">
+    <row r="2402" spans="2501:2505" x14ac:dyDescent="0.3">
+      <c r="CRE2402">
         <v>10</v>
       </c>
-      <c r="ADV702">
+      <c r="CRF2402">
         <v>235</v>
       </c>
-      <c r="ADW702">
+      <c r="CRG2402">
         <v>123</v>
       </c>
-      <c r="ADX702">
+      <c r="CRH2402">
         <v>1246145</v>
       </c>
-      <c r="ADY702">
+      <c r="CRI2402">
         <v>16</v>
       </c>
     </row>
-    <row r="703" spans="801:805" x14ac:dyDescent="0.3">
-      <c r="ADU703">
+    <row r="2403" spans="2501:2505" x14ac:dyDescent="0.3">
+      <c r="CRE2403">
         <v>461045</v>
       </c>
-      <c r="ADV703">
+      <c r="CRF2403">
         <v>23450</v>
       </c>
-      <c r="ADW703">
+      <c r="CRG2403">
         <v>1325406</v>
       </c>
-      <c r="ADX703">
+      <c r="CRH2403">
         <v>104015</v>
       </c>
-      <c r="ADY703">
+      <c r="CRI2403">
         <v>41</v>
       </c>
     </row>
-    <row r="704" spans="801:805" x14ac:dyDescent="0.3">
-      <c r="ADU704">
+    <row r="2404" spans="2501:2505" x14ac:dyDescent="0.3">
+      <c r="CRE2404">
         <v>1045</v>
       </c>
-      <c r="ADV704">
+      <c r="CRF2404">
         <v>4501</v>
       </c>
-      <c r="ADW704">
+      <c r="CRG2404">
         <v>540</v>
       </c>
-      <c r="ADX704">
+      <c r="CRH2404">
         <v>40</v>
       </c>
-      <c r="ADY704">
+      <c r="CRI2404">
         <v>104</v>
       </c>
     </row>
-    <row r="901" spans="1001:1005" x14ac:dyDescent="0.3">
-      <c r="ALM901" s="1">
-        <v>2</v>
-      </c>
-      <c r="ALN901" s="1">
-        <v>2</v>
-      </c>
-      <c r="ALO901" s="1">
+    <row r="2601" spans="2701:2705" x14ac:dyDescent="0.3">
+      <c r="CYW2601" s="1">
+        <v>2</v>
+      </c>
+      <c r="CYX2601" s="1">
+        <v>2</v>
+      </c>
+      <c r="CYY2601" s="1">
         <v>1400</v>
       </c>
-      <c r="ALP901" s="1">
+      <c r="CYZ2601" s="1">
         <v>1967</v>
       </c>
-      <c r="ALQ901" s="1">
+      <c r="CZA2601" s="1">
         <v>220000</v>
       </c>
     </row>
-    <row r="902" spans="1001:1005" x14ac:dyDescent="0.3">
-      <c r="ALM902" s="1">
-        <v>3</v>
-      </c>
-      <c r="ALN902" s="1">
-        <v>2</v>
-      </c>
-      <c r="ALO902" s="1">
+    <row r="2602" spans="2701:2705" x14ac:dyDescent="0.3">
+      <c r="CYW2602" s="1">
+        <v>3</v>
+      </c>
+      <c r="CYX2602" s="1">
+        <v>2</v>
+      </c>
+      <c r="CYY2602" s="1">
         <v>1300</v>
       </c>
-      <c r="ALP902" s="1">
+      <c r="CYZ2602" s="1">
         <v>1984</v>
       </c>
-      <c r="ALQ902" s="1">
+      <c r="CZA2602" s="1">
         <v>400200</v>
       </c>
     </row>
-    <row r="903" spans="1001:1005" x14ac:dyDescent="0.3">
-      <c r="ALM903" s="1">
-        <v>2</v>
-      </c>
-      <c r="ALN903" s="1">
-        <v>2</v>
-      </c>
-      <c r="ALO903" s="1">
+    <row r="2603" spans="2701:2705" x14ac:dyDescent="0.3">
+      <c r="CYW2603" s="1">
+        <v>2</v>
+      </c>
+      <c r="CYX2603" s="1">
+        <v>2</v>
+      </c>
+      <c r="CYY2603" s="1">
         <v>900</v>
       </c>
-      <c r="ALP903" s="1">
+      <c r="CYZ2603" s="1">
         <v>1989</v>
       </c>
-      <c r="ALQ903" s="1">
+      <c r="CZA2603" s="1">
         <v>250000</v>
       </c>
     </row>
-    <row r="904" spans="1001:1005" x14ac:dyDescent="0.3">
-      <c r="ALM904" s="1">
-        <v>4</v>
-      </c>
-      <c r="ALN904" s="1">
-        <v>3</v>
-      </c>
-      <c r="ALO904" s="1">
+    <row r="2604" spans="2701:2705" x14ac:dyDescent="0.3">
+      <c r="CYW2604" s="1">
+        <v>4</v>
+      </c>
+      <c r="CYX2604" s="1">
+        <v>3</v>
+      </c>
+      <c r="CYY2604" s="1">
         <v>2900</v>
       </c>
-      <c r="ALP904" s="1">
+      <c r="CYZ2604" s="1">
         <v>1955</v>
       </c>
-      <c r="ALQ904" s="1">
+      <c r="CZA2604" s="1">
         <v>640000</v>
       </c>
     </row>
